--- a/CHYM.xlsx
+++ b/CHYM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E7DE1-2B3B-4992-8293-D105AB377066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7130AE8B-2670-4E16-8559-A7946FBADED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{3CBE68B6-D8DF-4A5B-AE21-32CF4382DE84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{3CBE68B6-D8DF-4A5B-AE21-32CF4382DE84}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
-    <t>Chime Fiancial</t>
-  </si>
-  <si>
     <t>numbers in mio USD</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Puchase Volume in billions</t>
+  </si>
+  <si>
+    <t>Chime Financial</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,12 +118,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -132,6 +130,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,14 +167,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,86 +513,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE4462E-14B4-40AB-9CBA-3F890E848B13}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K7" sqref="K3:K7"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>39.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+      <c r="K3" s="3">
+        <v>364.421538</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4">
-        <v>364.421538</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f>+K2*K3</f>
         <v>14227.016843519999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
         <f>337.697+368.889</f>
         <v>706.58600000000001</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
+      <c r="L5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f>+K4-K5+K6</f>
         <v>13520.43084352</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -591,71 +605,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684FA24F-6A9E-4375-85DA-8C79D621AAF6}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="G3" s="2">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>251</v>
       </c>
     </row>
